--- a/out/Frisksnit/Frisksnit Glostrup Hospital (GLO), Centralkøkken - Økologi statistik februar 2024.xlsx
+++ b/out/Frisksnit/Frisksnit Glostrup Hospital (GLO), Centralkøkken - Økologi statistik februar 2024.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>1056930 - FRISKSNIT.dk</t>
   </si>
@@ -373,7 +373,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>1% filler,13% containsTotalMass,13% containsSingleMass,13% containsProduct,6% containsProductNr,13% containsAmount,13% SingleMassHeader,13% TotalMassHeader,13% QuantityHeader,</t>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>1% filler,13% containsTotalMass,13% containsSingleMass,13% containsProduct,6% containsProductNr,13% containsAmount,13% NrHeader,13% SingleMassHeader,13% TotalMassHeader,</t>
+  </si>
+  <si>
+    <t>1% filler,19% containsTotalMass,19% containsSingleMass,19% containsProduct,19% SingleMassHeader,19% TotalMassHeader,</t>
   </si>
   <si>
     <t xml:space="preserve">VARENR, </t>
@@ -423,7 +426,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,7 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -493,6 +496,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9B8C88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6B281"/>
       </patternFill>
     </fill>
     <fill>
@@ -529,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -607,35 +615,39 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" applyFill="1" borderId="0"/>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="15" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" applyFill="1" borderId="0"/>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2002,7 +2014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78577F0-CACC-4C8C-AFDE-247954783A2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23F9107-8BAC-4442-8BEE-6B02E9C07B2E}">
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2304,6 +2316,9 @@
       <c r="G14" s="27">
         <v>73.35</v>
       </c>
+      <c r="H14" s="40" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
@@ -2474,7 +2489,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -2915,7 +2930,7 @@
       <c r="B41" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="39" t="s">
         <v>90</v>
       </c>
       <c r="D41" s="24">
@@ -3055,11 +3070,11 @@
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="39">
+      <c r="F48" s="41">
         <f>+F23/F47</f>
         <v>0.3720693170234455</v>
       </c>
-      <c r="G48" s="39">
+      <c r="G48" s="41">
         <f>G45/G47</f>
         <v>0.5483768159882163</v>
       </c>
@@ -3071,7 +3086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8638FEE-EBCF-46FF-9A6A-7BB36AF9EA5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E00210-8AA9-4DBB-AC1C-4BDDCFAF2A9A}">
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3124,20 +3139,20 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="C6" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="47" t="s">
+      <c r="E6" s="49" t="s">
         <v>118</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>119</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>10</v>
@@ -3147,19 +3162,19 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="47" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="50">
         <v>8</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="52">
         <f>+D7*E7</f>
         <v>8</v>
       </c>
@@ -3171,19 +3186,19 @@
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="47" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="50">
         <v>8</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="52">
         <f ref="F8:F22" t="shared" si="0">+D8*E8</f>
         <v>40</v>
       </c>
@@ -3195,19 +3210,19 @@
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="47" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="50">
         <v>4</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="52">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3219,19 +3234,19 @@
       <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="47" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="48">
-        <v>3</v>
-      </c>
-      <c r="F10" s="50">
+      <c r="E10" s="50">
+        <v>3</v>
+      </c>
+      <c r="F10" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3243,19 +3258,19 @@
       <c r="A11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="47" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="48">
-        <v>3</v>
-      </c>
-      <c r="F11" s="50">
+      <c r="E11" s="50">
+        <v>3</v>
+      </c>
+      <c r="F11" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3267,19 +3282,19 @@
       <c r="A12" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="47" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="48">
-        <v>1</v>
-      </c>
-      <c r="F12" s="50">
+      <c r="E12" s="50">
+        <v>1</v>
+      </c>
+      <c r="F12" s="52">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3291,19 +3306,19 @@
       <c r="A13" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="47" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="48">
-        <v>1</v>
-      </c>
-      <c r="F13" s="50">
+      <c r="E13" s="50">
+        <v>1</v>
+      </c>
+      <c r="F13" s="52">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3315,19 +3330,19 @@
       <c r="A14" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="47" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="48">
-        <v>3</v>
-      </c>
-      <c r="F14" s="50">
+      <c r="E14" s="50">
+        <v>3</v>
+      </c>
+      <c r="F14" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3339,19 +3354,19 @@
       <c r="A15" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="47" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="1">
         <v>5</v>
       </c>
-      <c r="E15" s="48">
-        <v>1</v>
-      </c>
-      <c r="F15" s="50">
+      <c r="E15" s="50">
+        <v>1</v>
+      </c>
+      <c r="F15" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -3363,19 +3378,19 @@
       <c r="A16" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="47" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="50">
         <v>8</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="52">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -3387,19 +3402,19 @@
       <c r="A17" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="47" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="50">
         <v>12</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="52">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -3411,19 +3426,19 @@
       <c r="A18" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="47" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="48">
-        <v>3</v>
-      </c>
-      <c r="F18" s="50">
+      <c r="E18" s="50">
+        <v>3</v>
+      </c>
+      <c r="F18" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3435,19 +3450,19 @@
       <c r="A19" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="47" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="50">
         <v>4</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="52">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -3459,19 +3474,19 @@
       <c r="A20" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="47" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="50">
         <v>100</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="52">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3483,19 +3498,19 @@
       <c r="A21" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="47" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="50">
         <v>101</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21" s="52">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
@@ -3507,19 +3522,19 @@
       <c r="A22" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="47" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="48">
-        <v>5</v>
-      </c>
-      <c r="F22" s="50">
+      <c r="E22" s="50">
+        <v>5</v>
+      </c>
+      <c r="F22" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -3531,15 +3546,15 @@
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="45">
         <v>3070</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="48" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="51">
+      <c r="E23" s="51"/>
+      <c r="F23" s="53">
         <f>SUM(F7:F22)</f>
         <v>365</v>
       </c>
@@ -3559,20 +3574,20 @@
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="44" t="s">
+      <c r="B25" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="C25" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="47" t="s">
+      <c r="E25" s="49" t="s">
         <v>118</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>119</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>10</v>
@@ -3582,19 +3597,19 @@
       <c r="A26" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="47" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="50">
         <v>4</v>
       </c>
-      <c r="F26" s="50">
+      <c r="F26" s="52">
         <f ref="F26:F44" t="shared" si="1">+D26*E26</f>
         <v>4</v>
       </c>
@@ -3606,19 +3621,19 @@
       <c r="A27" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="47" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="48">
-        <v>3</v>
-      </c>
-      <c r="F27" s="50">
+      <c r="E27" s="50">
+        <v>3</v>
+      </c>
+      <c r="F27" s="52">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -3630,19 +3645,19 @@
       <c r="A28" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="47" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
       </c>
-      <c r="E28" s="48">
-        <v>1</v>
-      </c>
-      <c r="F28" s="50">
+      <c r="E28" s="50">
+        <v>1</v>
+      </c>
+      <c r="F28" s="52">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3654,19 +3669,19 @@
       <c r="A29" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="47" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="50">
         <v>2</v>
       </c>
-      <c r="F29" s="50">
+      <c r="F29" s="52">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -3678,19 +3693,19 @@
       <c r="A30" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="47" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="50">
         <v>4</v>
       </c>
-      <c r="F30" s="50">
+      <c r="F30" s="52">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -3702,19 +3717,19 @@
       <c r="A31" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="47" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
       </c>
-      <c r="E31" s="48">
-        <v>1</v>
-      </c>
-      <c r="F31" s="50">
+      <c r="E31" s="50">
+        <v>1</v>
+      </c>
+      <c r="F31" s="52">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -3726,19 +3741,19 @@
       <c r="A32" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="47" t="s">
         <v>72</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="E32" s="48">
-        <v>5</v>
-      </c>
-      <c r="F32" s="50">
+      <c r="E32" s="50">
+        <v>5</v>
+      </c>
+      <c r="F32" s="52">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3750,19 +3765,19 @@
       <c r="A33" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="47" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="50">
         <v>33</v>
       </c>
-      <c r="F33" s="50">
+      <c r="F33" s="52">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
@@ -3774,19 +3789,19 @@
       <c r="A34" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="47" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
-      <c r="E34" s="48">
-        <v>1</v>
-      </c>
-      <c r="F34" s="50">
+      <c r="E34" s="50">
+        <v>1</v>
+      </c>
+      <c r="F34" s="52">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3798,19 +3813,19 @@
       <c r="A35" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="47" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="1">
         <v>5</v>
       </c>
-      <c r="E35" s="48">
+      <c r="E35" s="50">
         <v>12</v>
       </c>
-      <c r="F35" s="50">
+      <c r="F35" s="52">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -3822,19 +3837,19 @@
       <c r="A36" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="47" t="s">
         <v>80</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E36" s="50">
         <v>29</v>
       </c>
-      <c r="F36" s="50">
+      <c r="F36" s="52">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -3846,19 +3861,19 @@
       <c r="A37" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="47" t="s">
         <v>82</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="50">
         <v>4</v>
       </c>
-      <c r="F37" s="50">
+      <c r="F37" s="52">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -3870,19 +3885,19 @@
       <c r="A38" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="47" t="s">
         <v>84</v>
       </c>
       <c r="D38" s="1">
         <v>5</v>
       </c>
-      <c r="E38" s="48">
-        <v>3</v>
-      </c>
-      <c r="F38" s="50">
+      <c r="E38" s="50">
+        <v>3</v>
+      </c>
+      <c r="F38" s="52">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -3894,19 +3909,19 @@
       <c r="A39" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="47" t="s">
         <v>86</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="50">
         <v>13</v>
       </c>
-      <c r="F39" s="50">
+      <c r="F39" s="52">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -3918,19 +3933,19 @@
       <c r="A40" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="47" t="s">
         <v>88</v>
       </c>
       <c r="D40" s="1">
         <v>5</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="50">
         <v>42</v>
       </c>
-      <c r="F40" s="50">
+      <c r="F40" s="52">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
@@ -3942,19 +3957,19 @@
       <c r="A41" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="47" t="s">
         <v>90</v>
       </c>
       <c r="D41" s="1">
         <v>5</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="50">
         <v>18</v>
       </c>
-      <c r="F41" s="50">
+      <c r="F41" s="52">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -3966,19 +3981,19 @@
       <c r="A42" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="47" t="s">
         <v>93</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
       </c>
-      <c r="E42" s="48">
-        <v>1</v>
-      </c>
-      <c r="F42" s="50">
+      <c r="E42" s="50">
+        <v>1</v>
+      </c>
+      <c r="F42" s="52">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -3990,19 +4005,19 @@
       <c r="A43" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="47" t="s">
         <v>95</v>
       </c>
       <c r="D43" s="1">
         <v>5</v>
       </c>
-      <c r="E43" s="48">
+      <c r="E43" s="50">
         <v>2</v>
       </c>
-      <c r="F43" s="50">
+      <c r="F43" s="52">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -4014,19 +4029,19 @@
       <c r="A44" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="47" t="s">
         <v>98</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="50">
         <v>30</v>
       </c>
-      <c r="F44" s="50">
+      <c r="F44" s="52">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -4038,15 +4053,15 @@
       <c r="A45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="43">
+      <c r="B45" s="45">
         <v>3070</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="48" t="s">
         <v>53</v>
       </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="51">
+      <c r="E45" s="51"/>
+      <c r="F45" s="53">
         <f>SUM(F26:F44)</f>
         <v>616</v>
       </c>
